--- a/500all/speech_level/speeches_CHRG-114hhrg94315.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94315.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,45 +52,27 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairwoman Foxx.    Today's hearing will focus on how our nation can improve college access and completion for low-income and first-generation college students. I want to join the chairwoman in welcoming our witnesses, Dr. Michelle Cooper, Dr. Charles Alexander, Dr. Laura Perna, and Dr. Joe May--and I am proud to say, from my home state of Texas.    Preparing all students for good, family-sustaining jobs and careers and a bright future must be a guiding principle for HEA reauthorization. A highly skilled 21st century workforce is key to strengthening our nation's economy and to reducing income inequality and poverty.    The Georgetown Center on Education and the Workforce found that 63 percent of all jobs will require workers with at least some postsecondary education by 2018. If our nation is going to compete in the global economy we must be sure that all these students are reaching their full potential and obtaining postsecondary education.    Low-income and first-generation students face substantial hurdles in applying to college and receiving financial aid they need. Too often, they enter unprepared and they struggle to persist in their studies and ultimately graduate.    Meanwhile, college costs have continued to rise while student debt now tops $1.2 trillion.    First-generation students like myself are older, more likely to be independent students and to have families of their own. They are more likely to be enrolled part-time and to withdraw and reenroll over and over again the course of their education.    First-generation students are most likely to be enrolled in associate degree programs, and many transfer between community colleges and 4-year institutions over the course of their education. This process needs to be seamless so time and money are not wasted retaking coursework.    We also know that too many students enter postsecondary education unprepared for college-level coursework. According to the National Center for Education Statistics, in 2011 through 2012, 36 percent of college students whose parents had a high school diploma or less reported needing to take remedial coursework, compared to only 28 percent of students whose parents had a bachelor's degree or higher.    Forty percent of Pell Grant recipients need to take remedial courses to improve their basic skills. Unfortunately, according to Complete College America, 70 percent of students who begin in remedial math never enroll in the next level college course.    While we need to bolster our K-12 system to ensure that students are entering college prepared, we should also encourage innovative practices to increase success rates. Instead of prerequisite remedial courses, some institutions are experimenting with co-requisites, where students enroll in college-level courses but also take an additional support class or stay for extra tutoring after class.    MSIs, which are minority-serving institutions, enroll and graduate significant proportions of minority students and play a vital role in higher education for low-income and first-generation students. Through innovative practices, many are boosting graduation rates.    Between the years of 2000 and 2012, University of Texas at El Paso, an HSI in my home state of Texas, increased the total number of undergraduate degrees awarded by 79 percent while enrollment only grew by 26 percent.    So what did they do? At U.T. Center for Institutional Evaluation, Research, and Planning created a data tool for deans to track students' term-to-term enrollment status, allowing advisors to contact students who do not reenroll and help them get back on track. We need to maintain strong funding levels for these institutions like El Paso's University of Texas.    Pell Grants are another critical tool to keep college in reach for these students. Just last week I introduced four bills--H.R. 1956, H.R. 1957, H.R. 1958, and H.R. 1959--with our former colleague, Senator Mazie Hirono of Hawaii. She introduced her legislation that mirrors mine last week, as I did.    That, ladies and gentlemen, will strengthen Pell and restore the summer Pell program, which has--which was key in helping students graduate on time and with much less debt. I hope this committee, members on both sides of the aisle, will approve these bills when they come before us.    Finally, federal investments in GEAR UP, HEP/CAMP, and TRIO programs are transforming the lives of millions of disadvantaged students by providing them with academic support and services they need to success in school. The GEAR UP program in my district--congressional district number 15 in Texas--has had great success by adding a financial literacy component, which is helping parents and students understand the financial resources available to help them finance their higher education.    I look forward to hearing from each one of you what other recommendations you as panelists may have to make a college education accessible and affordable to greater numbers of low-income, minority, and first-generation college students.    And with that, Madam Chair, I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Perna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Perna. Chairwoman Foxx, Ranking Member Hinojosa, and members of the subcommittee, thank you very much for the opportunity to comment on best practices for helping low-income and first-generation students access and complete college. I am honored to have the opportunity to speak with you today.    The federal government plays an important role in promoting higher education attainment through the financial aid programs that are authorized under Title IV of the Higher Education Act. Of particular importance is the federal Pell Grant. Research consistently demonstrates the negative implications for college enrollment when college prices increase and grant aid decreases.    The negative effects are particularly large for the enrollment of students from low-income families. Providing sufficient funding so as to at least maintain the purchasing power of the Pell Grant is important to preserving the affordability of higher education for students from low-income families.    Although essential, investment in need-based grant aid is insufficient. The federal TRIO programs and other college access and success programs also contribute to the goal of raising higher education attainment for students from groups that are historically underrepresented in higher education.    As detailed further in my written testimony, I offer five recommendations to guide your committee's consideration of college access and success programs.    So first, target students with the greatest financial need. We must recognize and address the many ways that inequality is structured into the pathways into and through college. Students from low-income families have fewer financial resources to pay the direct cost of the college attendance and the many less visible costs of college access and completion.    Students from low-income families also typically attend high schools and postsecondary educational institutions that have fewer resources to invest in and support students' college-related outcomes. Targeting programs to low-income and first-generation students helps to level the playing field for higher education opportunity.    Second, assist students with navigating pathways into and through college with particular attention to financial aid processes. Although much information about college going and financial aid processes is available via the Internet and other sources, simply making information out there is insufficient.    Students and their families need to be able to determine which information is most useful and relevant, given their financial circumstances, academic preparation, their goals, and their interests. Low-income and first-generation students especially need guidance with the many steps that promote college entry, including preparing for and taking college admissions tests, searching for colleges that are well-suited to their goals and interests, visiting college campuses, submitting college applications, and more.    Low-income and first-generation students also need to understand the availability of financial aid and how to get the aid that is out there. They also often require assistance with completing financial aid application forms.    Third recommendation is to adapt programs to recognize the state, regional, and local context, as well as the characteristics of students served. To have a meaningful effect on students' college-related outcomes, college access and success programs need to adapt the delivery of services to recognize the context in which the programs are embedded.    Particularly important are the characteristics of state policies pertaining to high school graduation and assessment requirements and the higher education options that are available in the state, region, and locality.    Programs also need to recognize the differences in the needs of the students served. So middle and high school students, for example, require different types of support and assistance than veterans and unemployed adults who aspire to complete college.    Fourth, leverage federal spending to serve greater numbers of students. Although the federal government's investment in TRIO programs enables the provision of services to some students, many more low-income and first-generation students also require assistance. TRIO programs serve only a very small fraction, estimated less than 5 percent, of the nation's total population of low-income and first-generation college students.    Given constraints on the availability of additional dollars, the federal government should consider ways to leverage its investment to encourage greater support for college access and success programming from other entities as well as partnerships among the many programs that are also sponsored by state governments, colleges and universities, philanthropic organizations, and other entities.    The fifth recommendation is to encourage research that improves our understanding of best practices for college access and success programs. To maximize the return on investment in college access and success programs, we need to know more about what components and services work, for which groups of students, and in which contexts.    With more and better research, we will ensure that finite resources are used to most effectively improve college-related outcomes for students from low-income families and first-generation college students.    Thank you for your attention.</t>
   </si>
   <si>
-    <t>Alexander</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Alexander. Thank you, Chairwoman Foxx, Ranking Member Hinojosa, and all the members of the subcommittee, for inviting me to testify today.    I am a product of a single-parent household, and when I was young my mother aspired for me to attend college one day. As I came to the end of my senior year in high school, I thought I was prepared to enter college and compete with the rest of the students who were entering higher education institutions that year.    However, I soon learned that college was much more challenging than my high school was. I was fortunate, however, to be recruited by a college success program that provided me with a summer bridge experience, academic support services, and the guidance that I needed to succeed; 4 years later I completed my bachelor's degree and later went on to earn my master's and doctorate in the sociology of education.    So I can attest to the fact that if it were not for the support of these programs and the encouragement of my mother, of course, and extended family, I would not be here today sharing testimony with this committee.    Let me share with you a model student academic support program that I oversee at UCLA. The Academic Advancement Program, AAP, has been in existence since 1971. It is a multiracial, multiethnic academic program that advocates access, equity, and opportunity, and excellence in its students.    AAP students represent about 23 percent of the UCLA student body, which is about 24,000 undergraduates. It is a comprehensive support program that provides integrated services, setting the highest standards for them; promoting academic, personal, and programmatic excellence; and building communities of shared learning.    AAP is supported by a mixture of state, federal, and foundation funding. State funding represents the majority of our overall budget. Included in my written testimony you will see the funding sources and types.    A significant number of AAP students come from low-income families, are eligible for Pell Grants, and are in the first in their family to attend college; 63 percent are from historically underrepresented communities.    Each summer, AAP runs a rigorous, academic, 6-week, residential program for 400 entering freshmen and transfers. This is approximately 12 percent of the 34,000 students who are eligible for the program. Students take two to three university courses, and the summer bridge program could enroll more if additional funding were available.    AAP also provides peer-facilitated learning communities based on a dialogical pedagogy, collaborative learning workshops, academic personal counseling, innovative science programs, and scholarships. AAP has a comprehensive mentoring program that encourages all students to prepare for graduate and professional schools, and provides resources to support this end.    AAP also oversees a federally funded TRIO program, the Ronald E. McNair Scholars Program. Twenty-three of the first 33 McNair scholars are enrolled in graduate programs.    Over the past 10 years, AAP has responded to a growing number of eligible transfer students. AAP's work with its transfer students has resulted in a dramatic increase in their 4-year graduation rates, from 61 percent 15 years ago to 83 percent today.    We push our students to use all the university resources. College Honors is a nationally renowned program that provides students the organization and environment within which to pursue individual excellence. The percentage of AAP students in Honors has increased from 4 percent in the early 1990s to 17 percent today.    Another campus partner that we work closely with is the Program for Excellence in Education and Research in the Sciences, otherwise known as PEERS. PEERS is a primary retention program for entering underrepresented life and physical science students. Since its inception in 2003, 340 students have completed the PEERS program and 84 percent have graduated with UCLA science degrees.    Engagement in PEERS clearly improves academic success and retention in science, eliminating the achievement gap for URM students in science. Many of our graduates go on and earn Ph.D.s, go to professional school.    We have exchanged ideas with a number of universities across the country, including the University of Michigan, Maryland, Cal Berkeley, Cal Irvine, University of Texas, and international universities, such as Vrije University in Amsterdam, the University of Rwanda, and the University of Johannesburg. We have been hosted by visitors from Australia, Great Britain, South Korea, the Netherlands, South Africa, and many other countries.    A tenet of our AAP's philosophy that has resulted in spectacular graduation rates is the belief that when students work in the program to promote the success of other students, they gain the self-confidence and self-respect that propels them to graduate. By employing AAP students as tutors and as peer counselors, we set up a model of academic achievement that promotes the values of giving back to the community.    Most AAP students employees are paid with work study and institutional funds, and 100 percent of these students graduate. A 100 percent graduate rate is AAP's goal for all of its students.    Let me close by thanking Chairwoman Foxx, Ranking Member Hinojosa, and the other members of the subcommittee today for the opportunity to appear before you. I am happy to answer any questions at any time.    Thank you.</t>
   </si>
   <si>
-    <t>Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Cooper. Chairwoman Foxx, Ranking Member Hinojosa, and members of the subcommittee, good morning and thank you for this opportunity.    At IHEP we focus on issues related to college access and success for low-income and first-generation students. We recognize the important role of colleges and universities in serving these students.    Given that, I would like to discuss the role of minority-serving institutions, MSIs, which serve large numbers of first-generation and low-income students.    Most MSIs are public institutions. For example, the majority of the 409 Hispanic-serving institutions and 296 emerging HSIs are public, with 46 percent of HSIs being community colleges.    Almost half of all students at MSIs receive Pell Grants, with even greater numbers of Pell recipients attending HBCUs and tribal colleges. While the term ``MSIs'' refer to institutions with similar student profiles, these schools do have different histories and missions. Unlike other MSIs, the mission of tribal colleges and HBCUs have deep historical roots in the communities that they serve.    Many MSIs have strategies for educating low-income and first-generation students. I will mention a few, but before doing so, I want to stress the role of federal policymaking in supporting these students who can be found not only at MSIs but at other institutions, as well.    Therefore, for federal policymaking I offer four recommendations.    First, collect and provide more useful and usable data to students and their families. Students need clear and reliable data presented in user-friendly ways to inform their college choices and decisions. Likewise, policymakers need more comprehensive data to inform policy conversations and decision-making.    Second, increase the investment in the Pell Grant and simplify the financial aid process. Even though many MSIs try to hold tuition to levels that are relatively affordable, students still rely heavily on financial aid. To support these students, we must maintain and possibly even increase Pell Grant funding. We also need to simplify the financial aid process.    Third, we must increase support for TRIO and GEAR UP. Over a million students combined benefit from TRIO and GEAR UP. With a stronger investment, both programs could help so many more students, especially since the need is ever growing.    More details about these three recommendations can be found in the written testimony and I am happy to discuss.    My fourth recommendation brings me back to MSIs. I recommend that policymakers set high expectations for MSIs and support those that serve their students well. Many MSI leaders have already taken steps to improve student outcomes and institutional outcomes.    For example, the University of Texas at El Paso and St. Edward's University prioritize success for Hispanic students, which is evident by their strong outcomes and high graduation rates. St. Edward's actually has the highest graduation rate of all HSIs, at 72 percent. U.T. El Paso also offers dual enrollment with the local high schools and the local community college, which helps to reduce cost and time to degree.    At HBCUs, like Fayetteville State University and Norfolk State University, faculty and student affairs collaborate on data-driven solutions to support students. Fayetteville State targeted efforts towards their men of color, and both institutions strengthened teaching and learning practices.    Also, there are MSIs like California State, Northridge, which intentionally increased the enrollment of their Pell Grant recipients and first-generation students even as the state cut its budget. And there is North Carolina Central University, which eliminated waste and inefficiencies in several program areas and then funneled those savings into student success efforts.    Institutional reforms like these examples are rarely discussed at the national level. Even when faced with chronic underfunding, these and other college leaders have simply decided to do more with less. While I recognize that this is an honorable strategy, doing more with less is not a sustainable strategy.    In conclusion, it is important for federal policymakers to enhance support for MSIs that are enrolling and, most importantly, graduating and preparing their students to lead productive lives.    Thank you.</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. May. Thank you, Madam Chair, and Ranking Member Hinojosa, and members of the subcommittee.    The Dallas County Community College District comprises seven colleges and supports more than 100,000 students through our 7,000 employees. You described the problem so well in your opening comments, and we witness the same: Changing demographics among our students has prompted changes in how we help students and how we prepare them to enter the workforce and earn a living wage.    Every college in the Dallas County Community College District is a minority-serving institution, with diverse representation among Africa-Americans, Asian-Americans, and Latinos. Six of our seven colleges are Hispanic-serving institutions, and the seventh is predominantly African-American. As a predominantly HSI system, Dallas community colleges offer Latino students support through TRIO programs and other services, as well.    Since being designated as HSIs, the Dallas County Community College District colleges have closed the gaps in three key areas: District Hispanic enrollment reflects the demographics of Dallas County at 37.1 percent, and 39 percent in terms of completion of degrees; course performance with Hispanic students successfully completing attempted credit hours has gone up; and credentials with Hispanic students earning 31 percent of those awarded in our most recent year of 2014.    We emphasize completion and credentials so that students can be ready to earn a living wage and build a career. In our colleges that serve the most Hispanic students, student support service staff members use a case management approach to guide students through their academic pursuits, and we will provide the data in terms of the success of that approach.    As a result, 75 percent of the TRIO participants at Mountain View College are members of student associations, such as student government, Phi Theta Kappa, and athletic teams. Last year, almost 70 percent of Dallas County colleges' Hispanic students successfully completed their courses. Both TRIO and Title V services are not only important, they are essential to continue to grow our workforce and build the middle class.    We have engaged with Texas Completes, a statewide community college initiative to share data and strategies to improve student outcomes. Efforts through this partnership have led to an increase of 42 percent in certificates and an increase in 33 percent in associate degrees at--in Dallas from 2010 to 2014.    Our dual credit and early college high school programs offer additional options for at-risk students. Dual credit enables high school students to earn transferable college credits.    Dallas County colleges provide dual credit tuition free to our students. Dual credit students also earn more credits per semester than our traditional students, which places at-risk students in a much stronger position toward completion.    Our six early college high schools enroll 2,000 students, with Hispanics comprising 40 percent. They also account for 34.8 percent of the 700 early college high school students who graduate with both a high school diploma and a 2-year associate degree. Three of these schools have achieved National Blue Ribbon status.    Today everyone needs some education beyond high school. There are simply no jobs for those who do not have a credential that gives them the tools to earn a living wage.    And I believe in order to ensure that the middle class dreams of our students become a reality that Congress can affect positive change. I would like to leave you with four recommendations.    One, as the nation's demographics shift, an analysis should be conducted to ensure that TRIO funds are available to institutions that are early in the transition of serving minority and low-income students. Guidelines should be broadened to encourage partnerships with faith-based community organizations and others that are supporting the needs of similar populations.    Two, rather than keep TRIO programs separate from others within the institution, they should be integrated in a manner that ensures that the number of students served is not limited by federal dollars. The approach currently taken has the impact of capping who is served. This cap could easily be removed by requiring integration with existing services.    Increasingly, the fastest-growing HSI colleges are community colleges. As community colleges enroll over half of Hispanics in higher education, this designation is important to help them design successful strategies around student success and STEM. A continued emphasis should be placed on improving completion rates and student success.    Four, in addition to partnerships--partnerships should be broadened to encourage the development and implementation of early college high schools, as this approach has a proven record of improving high school graduation rates, college readiness, reducing time to degree, and improving GPAs, and improving college completion.    Thank you for your time and your attention today, and for your support of our students.</t>
   </si>
   <si>
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you very much, Madam Chairman.    And I thank the ranking member, as well, and the witnesses, for making some time for us this morning.    Dr. Alexander, you mentioned the Academic Advancement Program during your testimony that serves as a summer bridge program for entering freshmen and transfers. Florida International University, in the district I represent, also offers a summer bridge program that has helped students transition from high school to college.    FIU has also created programs intended to help low-income and first-generation students gain access and the proper preparation to be successful during their experience in higher ed. I am proud to report that FIU is one of the nation's largest, most diverse institutions in higher education, with over 54,000 students and 200,000 alumni. Nearly 53 percent of FIU's undergraduate student body will be the first generation in their families to attain a college degree.    To maximize access and completion, FIU has revolutionized student advising, created outside partnerships and initiatives, and leveraged Pell Grants and funding. And FIU has a strong partnership with Miami-Dade County public schools, focused on high school student success through dual enrollment and other programs.    They are hoping to incentivize a K-12 higher ed collaboration through their program called ACCESS, which is chaired by Superintendent Alberto Carvalho and President Mark Rosenberg. So far, the programs have been very successful promoting enrollment and graduation rates.    How do you think we can incentivize more of these types of partnerships between K-12 and higher ed to ease the transition for students and improve access for low-income, first-generation, and minority students?</t>
   </si>
   <si>
@@ -136,9 +118,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Madam Chairman.    And thank you, to our panel--distinguished panel, for joining us today. It is good to have you and good to learn more about the education process, and particularly higher education.    I am a new member of Congress and I come from the business community, so I understand a little bit about, you know, giving folks the opportunity to have a good-paying job. And one thing I have learned about education is the reason for education is preparing folks to get a good job.    The other thing that I learned in business was that, you know, folks are wired different ways. And if we can find out how--you know, where their passions are, they tend to really excel when they get--understand their passions and are allowed to pursue those passions.    And, you know, from an accountability standpoint, you know, I believe every young American should have the opportunity to explore paths after high school, and I think we need to do it after high school and before they spend 4 years on an undergraduate degree and then say, ``Okay, what do I do now?''    And, you know, the issue that I see is that, you know, the traditional 4-year degree is a process, but it doesn't guarantee a good-paying job anymore. The traditional route is not the only path to a job, and many good-paying technical jobs go unfilled both in our district and all across the country. Businesses are practically waiting for young, hardworking Americans to step up to the plate.    You all mentioned high school programs. Do these programs inform students of technical-type jobs that may be available to them and how they may seek those? And what are some ways that we can promote vocational learning to the low-income students?    And I will just throw that out to anyone who would like to address that.</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t xml:space="preserve">    Mr. Allen. All right.    Well, thank you again.    And I will yield back the--I have no time left.    Chairwoman Foxx. I now recognize the ranking member of the full committee, Mr. Scott, for 5 minutes.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Madam Chair. And I thank you and Representative Hinojosa for convening the hearing.    This hearing is actually fairly timely. Just this past Monday one of the largest for-profit college systems in the nation, Corinthian Incorporated, shut its doors, and that was after being hit with a $30 million fine by the Department of Agriculture and--excuse me, Department of Education--and being denied access to student financial assistance because of findings such as misrepresentation to accrediting agencies and students about their placement rates.    When you find such false advertising, it is appropriate for the Department of Education to take action. There were other institutions that may be doing the same things, and we need the Department of Education to take the appropriate action when there are specific findings of misconduct.    Now, we all know that a quality postsecondary education is a proven path to the middle class, and we have heard comments about the need for some education past the high school level in order to participate in today's economy. But the high cost of postsecondary education and the sharp reductions in student aid are making it very difficult for low-income and first-generation students to participate.    Many years ago, when the Pell Grant started, it covered about 75 percent of the cost of attending a 4-year public institution, and you heard people talk about working their way through college. Get a summer job and a part-time job during the year and you have got enough to close the gap and graduate with virtually no loans.    Now the Pell Grant covers about a third of that cost, and even less than that for a private college, and working your way through college, even at 40 hours a week, is problematic without coming out with a debt the size of their parents' mortgages.    So we have to protect the access to college, and also we have to protect the ability of those with financial strains to actually graduate.    Just start off with a couple of questions.    Dr. Perna, you mentioned the financial aid form. Are people actually not filling it out because of the complications?</t>
   </si>
   <si>
@@ -217,9 +193,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Chairwoman Foxx.    And let me also thank the witnesses for your presence and testimony here today.    Fifty years ago seemed throughout much of America there were robust opportunities connected to manufacturing jobs and factory jobs in much of the country that would allow an American to have a pathway toward the middle class without having to obtain a college education. Those days have subsequently abandoned us. It seems many of those factory and manufacturing jobs have moved overseas and aren't available to Americans.    So we are in a situation now where increasingly, many of the jobs in our economy are going to require some higher education. I think in about 5 years I have seen statistics suggesting that more than 65 percent of the jobs will actually require a college degree.    And so given this changing sort of landscape that we find ourselves in, maybe we will start with Dr. Perna, I mean, what do you suggest that we do from a federal government perspective in investing in the notion that we are going to have to better prepare a wider number of Americans for successfully completing a higher education in order for us as a country, I think, to remain prepared for our folks to adequately succeed in the 21st century economy?</t>
   </si>
   <si>
@@ -238,9 +211,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Madam Chair.    And let me thank all of the witnesses who are here today.    You know, we have talked, I guess, a lot about access and affordability, and for me that is key. Without affordability, access doesn't mean very much.    I am one of those first-generation--or I was--first-generation, low-income students. I was able to survive and be successful at the Ohio State University, get my Ph.D. there, because of the North Carolina A&amp;T, an HBCU that prepared me, gave me the skills that I needed that I didn't have when I left high school from New Jersey.    But I want to ask Dr. Cooper about Parent PLUS loans. This program underwent some changes in 2011 that resulted in students who were previously eligible and they were being denied as a result of the changes.    It affected a lot of students, a number of them in North Carolina, their ability to pay tuition. Dramatic effects on HBCUs.    When the problem first surfaced in 2012, 400,000 students nationwide were impacted; 28,000 HBCU students negatively impacted.    So do you believe that the recent changes to this program are enough to fix the problem created by the 2011 changes? And if not, what do you believe we need to do to address this problem?</t>
   </si>
   <si>
@@ -269,9 +239,6 @@
   </si>
   <si>
     <t>412308</t>
-  </si>
-  <si>
-    <t>Jared Polis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Madam Chair.    Dr. Cooper, our discussion today and the comments and questions really focused on creating opportunities and encourage college completion among low-income and first-generation students. Can you talk about how programs like competency-based education and innovations in that area can provide students the flexibility they need to complete their degree and reduce costs and remove--reduce some of the cost barriers?</t>
@@ -712,11 +679,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -736,13 +701,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -762,13 +725,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -788,13 +749,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -814,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -840,13 +797,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -866,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -892,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -918,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -944,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -972,11 +919,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -996,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1024,11 +967,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1048,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1076,11 +1015,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1100,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1128,11 +1063,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1152,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1180,11 +1111,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1204,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1230,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1256,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1282,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1308,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1334,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1360,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1386,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1412,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1438,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1464,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1490,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1516,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1542,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1568,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1594,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1620,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1646,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1672,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1698,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1724,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1750,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1776,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1802,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1828,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1854,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1880,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1906,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1932,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1958,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1984,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2010,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2036,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2062,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2088,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2114,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2140,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2166,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2192,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2218,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2244,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2270,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2296,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2322,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2348,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
-      </c>
-      <c r="G65" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2374,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2400,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2426,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2452,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>85</v>
-      </c>
-      <c r="H69" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2478,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2504,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2532,11 +2359,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94315.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94315.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,27 +55,51 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairwoman Foxx.    Today's hearing will focus on how our nation can improve college access and completion for low-income and first-generation college students. I want to join the chairwoman in welcoming our witnesses, Dr. Michelle Cooper, Dr. Charles Alexander, Dr. Laura Perna, and Dr. Joe May--and I am proud to say, from my home state of Texas.    Preparing all students for good, family-sustaining jobs and careers and a bright future must be a guiding principle for HEA reauthorization. A highly skilled 21st century workforce is key to strengthening our nation's economy and to reducing income inequality and poverty.    The Georgetown Center on Education and the Workforce found that 63 percent of all jobs will require workers with at least some postsecondary education by 2018. If our nation is going to compete in the global economy we must be sure that all these students are reaching their full potential and obtaining postsecondary education.    Low-income and first-generation students face substantial hurdles in applying to college and receiving financial aid they need. Too often, they enter unprepared and they struggle to persist in their studies and ultimately graduate.    Meanwhile, college costs have continued to rise while student debt now tops $1.2 trillion.    First-generation students like myself are older, more likely to be independent students and to have families of their own. They are more likely to be enrolled part-time and to withdraw and reenroll over and over again the course of their education.    First-generation students are most likely to be enrolled in associate degree programs, and many transfer between community colleges and 4-year institutions over the course of their education. This process needs to be seamless so time and money are not wasted retaking coursework.    We also know that too many students enter postsecondary education unprepared for college-level coursework. According to the National Center for Education Statistics, in 2011 through 2012, 36 percent of college students whose parents had a high school diploma or less reported needing to take remedial coursework, compared to only 28 percent of students whose parents had a bachelor's degree or higher.    Forty percent of Pell Grant recipients need to take remedial courses to improve their basic skills. Unfortunately, according to Complete College America, 70 percent of students who begin in remedial math never enroll in the next level college course.    While we need to bolster our K-12 system to ensure that students are entering college prepared, we should also encourage innovative practices to increase success rates. Instead of prerequisite remedial courses, some institutions are experimenting with co-requisites, where students enroll in college-level courses but also take an additional support class or stay for extra tutoring after class.    MSIs, which are minority-serving institutions, enroll and graduate significant proportions of minority students and play a vital role in higher education for low-income and first-generation students. Through innovative practices, many are boosting graduation rates.    Between the years of 2000 and 2012, University of Texas at El Paso, an HSI in my home state of Texas, increased the total number of undergraduate degrees awarded by 79 percent while enrollment only grew by 26 percent.    So what did they do? At U.T. Center for Institutional Evaluation, Research, and Planning created a data tool for deans to track students' term-to-term enrollment status, allowing advisors to contact students who do not reenroll and help them get back on track. We need to maintain strong funding levels for these institutions like El Paso's University of Texas.    Pell Grants are another critical tool to keep college in reach for these students. Just last week I introduced four bills--H.R. 1956, H.R. 1957, H.R. 1958, and H.R. 1959--with our former colleague, Senator Mazie Hirono of Hawaii. She introduced her legislation that mirrors mine last week, as I did.    That, ladies and gentlemen, will strengthen Pell and restore the summer Pell program, which has--which was key in helping students graduate on time and with much less debt. I hope this committee, members on both sides of the aisle, will approve these bills when they come before us.    Finally, federal investments in GEAR UP, HEP/CAMP, and TRIO programs are transforming the lives of millions of disadvantaged students by providing them with academic support and services they need to success in school. The GEAR UP program in my district--congressional district number 15 in Texas--has had great success by adding a financial literacy component, which is helping parents and students understand the financial resources available to help them finance their higher education.    I look forward to hearing from each one of you what other recommendations you as panelists may have to make a college education accessible and affordable to greater numbers of low-income, minority, and first-generation college students.    And with that, Madam Chair, I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Perna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Perna. Chairwoman Foxx, Ranking Member Hinojosa, and members of the subcommittee, thank you very much for the opportunity to comment on best practices for helping low-income and first-generation students access and complete college. I am honored to have the opportunity to speak with you today.    The federal government plays an important role in promoting higher education attainment through the financial aid programs that are authorized under Title IV of the Higher Education Act. Of particular importance is the federal Pell Grant. Research consistently demonstrates the negative implications for college enrollment when college prices increase and grant aid decreases.    The negative effects are particularly large for the enrollment of students from low-income families. Providing sufficient funding so as to at least maintain the purchasing power of the Pell Grant is important to preserving the affordability of higher education for students from low-income families.    Although essential, investment in need-based grant aid is insufficient. The federal TRIO programs and other college access and success programs also contribute to the goal of raising higher education attainment for students from groups that are historically underrepresented in higher education.    As detailed further in my written testimony, I offer five recommendations to guide your committee's consideration of college access and success programs.    So first, target students with the greatest financial need. We must recognize and address the many ways that inequality is structured into the pathways into and through college. Students from low-income families have fewer financial resources to pay the direct cost of the college attendance and the many less visible costs of college access and completion.    Students from low-income families also typically attend high schools and postsecondary educational institutions that have fewer resources to invest in and support students' college-related outcomes. Targeting programs to low-income and first-generation students helps to level the playing field for higher education opportunity.    Second, assist students with navigating pathways into and through college with particular attention to financial aid processes. Although much information about college going and financial aid processes is available via the Internet and other sources, simply making information out there is insufficient.    Students and their families need to be able to determine which information is most useful and relevant, given their financial circumstances, academic preparation, their goals, and their interests. Low-income and first-generation students especially need guidance with the many steps that promote college entry, including preparing for and taking college admissions tests, searching for colleges that are well-suited to their goals and interests, visiting college campuses, submitting college applications, and more.    Low-income and first-generation students also need to understand the availability of financial aid and how to get the aid that is out there. They also often require assistance with completing financial aid application forms.    Third recommendation is to adapt programs to recognize the state, regional, and local context, as well as the characteristics of students served. To have a meaningful effect on students' college-related outcomes, college access and success programs need to adapt the delivery of services to recognize the context in which the programs are embedded.    Particularly important are the characteristics of state policies pertaining to high school graduation and assessment requirements and the higher education options that are available in the state, region, and locality.    Programs also need to recognize the differences in the needs of the students served. So middle and high school students, for example, require different types of support and assistance than veterans and unemployed adults who aspire to complete college.    Fourth, leverage federal spending to serve greater numbers of students. Although the federal government's investment in TRIO programs enables the provision of services to some students, many more low-income and first-generation students also require assistance. TRIO programs serve only a very small fraction, estimated less than 5 percent, of the nation's total population of low-income and first-generation college students.    Given constraints on the availability of additional dollars, the federal government should consider ways to leverage its investment to encourage greater support for college access and success programming from other entities as well as partnerships among the many programs that are also sponsored by state governments, colleges and universities, philanthropic organizations, and other entities.    The fifth recommendation is to encourage research that improves our understanding of best practices for college access and success programs. To maximize the return on investment in college access and success programs, we need to know more about what components and services work, for which groups of students, and in which contexts.    With more and better research, we will ensure that finite resources are used to most effectively improve college-related outcomes for students from low-income families and first-generation college students.    Thank you for your attention.</t>
   </si>
   <si>
+    <t>Alexander</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Alexander. Thank you, Chairwoman Foxx, Ranking Member Hinojosa, and all the members of the subcommittee, for inviting me to testify today.    I am a product of a single-parent household, and when I was young my mother aspired for me to attend college one day. As I came to the end of my senior year in high school, I thought I was prepared to enter college and compete with the rest of the students who were entering higher education institutions that year.    However, I soon learned that college was much more challenging than my high school was. I was fortunate, however, to be recruited by a college success program that provided me with a summer bridge experience, academic support services, and the guidance that I needed to succeed; 4 years later I completed my bachelor's degree and later went on to earn my master's and doctorate in the sociology of education.    So I can attest to the fact that if it were not for the support of these programs and the encouragement of my mother, of course, and extended family, I would not be here today sharing testimony with this committee.    Let me share with you a model student academic support program that I oversee at UCLA. The Academic Advancement Program, AAP, has been in existence since 1971. It is a multiracial, multiethnic academic program that advocates access, equity, and opportunity, and excellence in its students.    AAP students represent about 23 percent of the UCLA student body, which is about 24,000 undergraduates. It is a comprehensive support program that provides integrated services, setting the highest standards for them; promoting academic, personal, and programmatic excellence; and building communities of shared learning.    AAP is supported by a mixture of state, federal, and foundation funding. State funding represents the majority of our overall budget. Included in my written testimony you will see the funding sources and types.    A significant number of AAP students come from low-income families, are eligible for Pell Grants, and are in the first in their family to attend college; 63 percent are from historically underrepresented communities.    Each summer, AAP runs a rigorous, academic, 6-week, residential program for 400 entering freshmen and transfers. This is approximately 12 percent of the 34,000 students who are eligible for the program. Students take two to three university courses, and the summer bridge program could enroll more if additional funding were available.    AAP also provides peer-facilitated learning communities based on a dialogical pedagogy, collaborative learning workshops, academic personal counseling, innovative science programs, and scholarships. AAP has a comprehensive mentoring program that encourages all students to prepare for graduate and professional schools, and provides resources to support this end.    AAP also oversees a federally funded TRIO program, the Ronald E. McNair Scholars Program. Twenty-three of the first 33 McNair scholars are enrolled in graduate programs.    Over the past 10 years, AAP has responded to a growing number of eligible transfer students. AAP's work with its transfer students has resulted in a dramatic increase in their 4-year graduation rates, from 61 percent 15 years ago to 83 percent today.    We push our students to use all the university resources. College Honors is a nationally renowned program that provides students the organization and environment within which to pursue individual excellence. The percentage of AAP students in Honors has increased from 4 percent in the early 1990s to 17 percent today.    Another campus partner that we work closely with is the Program for Excellence in Education and Research in the Sciences, otherwise known as PEERS. PEERS is a primary retention program for entering underrepresented life and physical science students. Since its inception in 2003, 340 students have completed the PEERS program and 84 percent have graduated with UCLA science degrees.    Engagement in PEERS clearly improves academic success and retention in science, eliminating the achievement gap for URM students in science. Many of our graduates go on and earn Ph.D.s, go to professional school.    We have exchanged ideas with a number of universities across the country, including the University of Michigan, Maryland, Cal Berkeley, Cal Irvine, University of Texas, and international universities, such as Vrije University in Amsterdam, the University of Rwanda, and the University of Johannesburg. We have been hosted by visitors from Australia, Great Britain, South Korea, the Netherlands, South Africa, and many other countries.    A tenet of our AAP's philosophy that has resulted in spectacular graduation rates is the belief that when students work in the program to promote the success of other students, they gain the self-confidence and self-respect that propels them to graduate. By employing AAP students as tutors and as peer counselors, we set up a model of academic achievement that promotes the values of giving back to the community.    Most AAP students employees are paid with work study and institutional funds, and 100 percent of these students graduate. A 100 percent graduate rate is AAP's goal for all of its students.    Let me close by thanking Chairwoman Foxx, Ranking Member Hinojosa, and the other members of the subcommittee today for the opportunity to appear before you. I am happy to answer any questions at any time.    Thank you.</t>
   </si>
   <si>
+    <t>Cooper</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Cooper. Chairwoman Foxx, Ranking Member Hinojosa, and members of the subcommittee, good morning and thank you for this opportunity.    At IHEP we focus on issues related to college access and success for low-income and first-generation students. We recognize the important role of colleges and universities in serving these students.    Given that, I would like to discuss the role of minority-serving institutions, MSIs, which serve large numbers of first-generation and low-income students.    Most MSIs are public institutions. For example, the majority of the 409 Hispanic-serving institutions and 296 emerging HSIs are public, with 46 percent of HSIs being community colleges.    Almost half of all students at MSIs receive Pell Grants, with even greater numbers of Pell recipients attending HBCUs and tribal colleges. While the term ``MSIs'' refer to institutions with similar student profiles, these schools do have different histories and missions. Unlike other MSIs, the mission of tribal colleges and HBCUs have deep historical roots in the communities that they serve.    Many MSIs have strategies for educating low-income and first-generation students. I will mention a few, but before doing so, I want to stress the role of federal policymaking in supporting these students who can be found not only at MSIs but at other institutions, as well.    Therefore, for federal policymaking I offer four recommendations.    First, collect and provide more useful and usable data to students and their families. Students need clear and reliable data presented in user-friendly ways to inform their college choices and decisions. Likewise, policymakers need more comprehensive data to inform policy conversations and decision-making.    Second, increase the investment in the Pell Grant and simplify the financial aid process. Even though many MSIs try to hold tuition to levels that are relatively affordable, students still rely heavily on financial aid. To support these students, we must maintain and possibly even increase Pell Grant funding. We also need to simplify the financial aid process.    Third, we must increase support for TRIO and GEAR UP. Over a million students combined benefit from TRIO and GEAR UP. With a stronger investment, both programs could help so many more students, especially since the need is ever growing.    More details about these three recommendations can be found in the written testimony and I am happy to discuss.    My fourth recommendation brings me back to MSIs. I recommend that policymakers set high expectations for MSIs and support those that serve their students well. Many MSI leaders have already taken steps to improve student outcomes and institutional outcomes.    For example, the University of Texas at El Paso and St. Edward's University prioritize success for Hispanic students, which is evident by their strong outcomes and high graduation rates. St. Edward's actually has the highest graduation rate of all HSIs, at 72 percent. U.T. El Paso also offers dual enrollment with the local high schools and the local community college, which helps to reduce cost and time to degree.    At HBCUs, like Fayetteville State University and Norfolk State University, faculty and student affairs collaborate on data-driven solutions to support students. Fayetteville State targeted efforts towards their men of color, and both institutions strengthened teaching and learning practices.    Also, there are MSIs like California State, Northridge, which intentionally increased the enrollment of their Pell Grant recipients and first-generation students even as the state cut its budget. And there is North Carolina Central University, which eliminated waste and inefficiencies in several program areas and then funneled those savings into student success efforts.    Institutional reforms like these examples are rarely discussed at the national level. Even when faced with chronic underfunding, these and other college leaders have simply decided to do more with less. While I recognize that this is an honorable strategy, doing more with less is not a sustainable strategy.    In conclusion, it is important for federal policymakers to enhance support for MSIs that are enrolling and, most importantly, graduating and preparing their students to lead productive lives.    Thank you.</t>
   </si>
   <si>
+    <t>May</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. May. Thank you, Madam Chair, and Ranking Member Hinojosa, and members of the subcommittee.    The Dallas County Community College District comprises seven colleges and supports more than 100,000 students through our 7,000 employees. You described the problem so well in your opening comments, and we witness the same: Changing demographics among our students has prompted changes in how we help students and how we prepare them to enter the workforce and earn a living wage.    Every college in the Dallas County Community College District is a minority-serving institution, with diverse representation among Africa-Americans, Asian-Americans, and Latinos. Six of our seven colleges are Hispanic-serving institutions, and the seventh is predominantly African-American. As a predominantly HSI system, Dallas community colleges offer Latino students support through TRIO programs and other services, as well.    Since being designated as HSIs, the Dallas County Community College District colleges have closed the gaps in three key areas: District Hispanic enrollment reflects the demographics of Dallas County at 37.1 percent, and 39 percent in terms of completion of degrees; course performance with Hispanic students successfully completing attempted credit hours has gone up; and credentials with Hispanic students earning 31 percent of those awarded in our most recent year of 2014.    We emphasize completion and credentials so that students can be ready to earn a living wage and build a career. In our colleges that serve the most Hispanic students, student support service staff members use a case management approach to guide students through their academic pursuits, and we will provide the data in terms of the success of that approach.    As a result, 75 percent of the TRIO participants at Mountain View College are members of student associations, such as student government, Phi Theta Kappa, and athletic teams. Last year, almost 70 percent of Dallas County colleges' Hispanic students successfully completed their courses. Both TRIO and Title V services are not only important, they are essential to continue to grow our workforce and build the middle class.    We have engaged with Texas Completes, a statewide community college initiative to share data and strategies to improve student outcomes. Efforts through this partnership have led to an increase of 42 percent in certificates and an increase in 33 percent in associate degrees at--in Dallas from 2010 to 2014.    Our dual credit and early college high school programs offer additional options for at-risk students. Dual credit enables high school students to earn transferable college credits.    Dallas County colleges provide dual credit tuition free to our students. Dual credit students also earn more credits per semester than our traditional students, which places at-risk students in a much stronger position toward completion.    Our six early college high schools enroll 2,000 students, with Hispanics comprising 40 percent. They also account for 34.8 percent of the 700 early college high school students who graduate with both a high school diploma and a 2-year associate degree. Three of these schools have achieved National Blue Ribbon status.    Today everyone needs some education beyond high school. There are simply no jobs for those who do not have a credential that gives them the tools to earn a living wage.    And I believe in order to ensure that the middle class dreams of our students become a reality that Congress can affect positive change. I would like to leave you with four recommendations.    One, as the nation's demographics shift, an analysis should be conducted to ensure that TRIO funds are available to institutions that are early in the transition of serving minority and low-income students. Guidelines should be broadened to encourage partnerships with faith-based community organizations and others that are supporting the needs of similar populations.    Two, rather than keep TRIO programs separate from others within the institution, they should be integrated in a manner that ensures that the number of students served is not limited by federal dollars. The approach currently taken has the impact of capping who is served. This cap could easily be removed by requiring integration with existing services.    Increasingly, the fastest-growing HSI colleges are community colleges. As community colleges enroll over half of Hispanics in higher education, this designation is important to help them design successful strategies around student success and STEM. A continued emphasis should be placed on improving completion rates and student success.    Four, in addition to partnerships--partnerships should be broadened to encourage the development and implementation of early college high schools, as this approach has a proven record of improving high school graduation rates, college readiness, reducing time to degree, and improving GPAs, and improving college completion.    Thank you for your time and your attention today, and for your support of our students.</t>
   </si>
   <si>
     <t>412621</t>
   </si>
   <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you very much, Madam Chairman.    And I thank the ranking member, as well, and the witnesses, for making some time for us this morning.    Dr. Alexander, you mentioned the Academic Advancement Program during your testimony that serves as a summer bridge program for entering freshmen and transfers. Florida International University, in the district I represent, also offers a summer bridge program that has helped students transition from high school to college.    FIU has also created programs intended to help low-income and first-generation students gain access and the proper preparation to be successful during their experience in higher ed. I am proud to report that FIU is one of the nation's largest, most diverse institutions in higher education, with over 54,000 students and 200,000 alumni. Nearly 53 percent of FIU's undergraduate student body will be the first generation in their families to attain a college degree.    To maximize access and completion, FIU has revolutionized student advising, created outside partnerships and initiatives, and leveraged Pell Grants and funding. And FIU has a strong partnership with Miami-Dade County public schools, focused on high school student success through dual enrollment and other programs.    They are hoping to incentivize a K-12 higher ed collaboration through their program called ACCESS, which is chaired by Superintendent Alberto Carvalho and President Mark Rosenberg. So far, the programs have been very successful promoting enrollment and graduation rates.    How do you think we can incentivize more of these types of partnerships between K-12 and higher ed to ease the transition for students and improve access for low-income, first-generation, and minority students?</t>
   </si>
   <si>
@@ -118,6 +145,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Madam Chairman.    And thank you, to our panel--distinguished panel, for joining us today. It is good to have you and good to learn more about the education process, and particularly higher education.    I am a new member of Congress and I come from the business community, so I understand a little bit about, you know, giving folks the opportunity to have a good-paying job. And one thing I have learned about education is the reason for education is preparing folks to get a good job.    The other thing that I learned in business was that, you know, folks are wired different ways. And if we can find out how--you know, where their passions are, they tend to really excel when they get--understand their passions and are allowed to pursue those passions.    And, you know, from an accountability standpoint, you know, I believe every young American should have the opportunity to explore paths after high school, and I think we need to do it after high school and before they spend 4 years on an undergraduate degree and then say, ``Okay, what do I do now?''    And, you know, the issue that I see is that, you know, the traditional 4-year degree is a process, but it doesn't guarantee a good-paying job anymore. The traditional route is not the only path to a job, and many good-paying technical jobs go unfilled both in our district and all across the country. Businesses are practically waiting for young, hardworking Americans to step up to the plate.    You all mentioned high school programs. Do these programs inform students of technical-type jobs that may be available to them and how they may seek those? And what are some ways that we can promote vocational learning to the low-income students?    And I will just throw that out to anyone who would like to address that.</t>
   </si>
   <si>
@@ -145,6 +178,9 @@
     <t xml:space="preserve">    Mr. Allen. All right.    Well, thank you again.    And I will yield back the--I have no time left.    Chairwoman Foxx. I now recognize the ranking member of the full committee, Mr. Scott, for 5 minutes.</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Madam Chair. And I thank you and Representative Hinojosa for convening the hearing.    This hearing is actually fairly timely. Just this past Monday one of the largest for-profit college systems in the nation, Corinthian Incorporated, shut its doors, and that was after being hit with a $30 million fine by the Department of Agriculture and--excuse me, Department of Education--and being denied access to student financial assistance because of findings such as misrepresentation to accrediting agencies and students about their placement rates.    When you find such false advertising, it is appropriate for the Department of Education to take action. There were other institutions that may be doing the same things, and we need the Department of Education to take the appropriate action when there are specific findings of misconduct.    Now, we all know that a quality postsecondary education is a proven path to the middle class, and we have heard comments about the need for some education past the high school level in order to participate in today's economy. But the high cost of postsecondary education and the sharp reductions in student aid are making it very difficult for low-income and first-generation students to participate.    Many years ago, when the Pell Grant started, it covered about 75 percent of the cost of attending a 4-year public institution, and you heard people talk about working their way through college. Get a summer job and a part-time job during the year and you have got enough to close the gap and graduate with virtually no loans.    Now the Pell Grant covers about a third of that cost, and even less than that for a private college, and working your way through college, even at 40 hours a week, is problematic without coming out with a debt the size of their parents' mortgages.    So we have to protect the access to college, and also we have to protect the ability of those with financial strains to actually graduate.    Just start off with a couple of questions.    Dr. Perna, you mentioned the financial aid form. Are people actually not filling it out because of the complications?</t>
   </si>
   <si>
@@ -193,6 +229,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Chairwoman Foxx.    And let me also thank the witnesses for your presence and testimony here today.    Fifty years ago seemed throughout much of America there were robust opportunities connected to manufacturing jobs and factory jobs in much of the country that would allow an American to have a pathway toward the middle class without having to obtain a college education. Those days have subsequently abandoned us. It seems many of those factory and manufacturing jobs have moved overseas and aren't available to Americans.    So we are in a situation now where increasingly, many of the jobs in our economy are going to require some higher education. I think in about 5 years I have seen statistics suggesting that more than 65 percent of the jobs will actually require a college degree.    And so given this changing sort of landscape that we find ourselves in, maybe we will start with Dr. Perna, I mean, what do you suggest that we do from a federal government perspective in investing in the notion that we are going to have to better prepare a wider number of Americans for successfully completing a higher education in order for us as a country, I think, to remain prepared for our folks to adequately succeed in the 21st century economy?</t>
   </si>
   <si>
@@ -211,6 +253,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Madam Chair.    And let me thank all of the witnesses who are here today.    You know, we have talked, I guess, a lot about access and affordability, and for me that is key. Without affordability, access doesn't mean very much.    I am one of those first-generation--or I was--first-generation, low-income students. I was able to survive and be successful at the Ohio State University, get my Ph.D. there, because of the North Carolina A&amp;T, an HBCU that prepared me, gave me the skills that I needed that I didn't have when I left high school from New Jersey.    But I want to ask Dr. Cooper about Parent PLUS loans. This program underwent some changes in 2011 that resulted in students who were previously eligible and they were being denied as a result of the changes.    It affected a lot of students, a number of them in North Carolina, their ability to pay tuition. Dramatic effects on HBCUs.    When the problem first surfaced in 2012, 400,000 students nationwide were impacted; 28,000 HBCU students negatively impacted.    So do you believe that the recent changes to this program are enough to fix the problem created by the 2011 changes? And if not, what do you believe we need to do to address this problem?</t>
   </si>
   <si>
@@ -239,6 +287,12 @@
   </si>
   <si>
     <t>412308</t>
+  </si>
+  <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Jared</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Madam Chair.    Dr. Cooper, our discussion today and the comments and questions really focused on creating opportunities and encourage college completion among low-income and first-generation students. Can you talk about how programs like competency-based education and innovations in that area can provide students the flexibility they need to complete their degree and reduce costs and remove--reduce some of the cost barriers?</t>
@@ -629,7 +683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +691,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,1709 +713,1985 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
       <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94315.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94315.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Hinojosa</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>412621</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Curbelo</t>
@@ -683,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +700,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,1982 +725,2116 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I61" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
